--- a/1/1.xlsx
+++ b/1/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21094" windowHeight="8434"/>
+    <workbookView windowWidth="10122" windowHeight="8434"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>说话人名</t>
   </si>
@@ -67,10 +67,16 @@
     <t>要动的物体名</t>
   </si>
   <si>
-    <t>动画编号</t>
-  </si>
-  <si>
-    <t>图片</t>
+    <t>当前状态</t>
+  </si>
+  <si>
+    <t>玩家参数</t>
+  </si>
+  <si>
+    <t>图片索引</t>
+  </si>
+  <si>
+    <t>是否可点击</t>
   </si>
   <si>
     <t>选项模式</t>
@@ -1026,7 +1032,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1094,37 +1100,37 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/1/1.xlsx
+++ b/1/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10122" windowHeight="8434"/>
+    <workbookView windowWidth="11357" windowHeight="8434"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>说话人名</t>
   </si>
@@ -43,7 +43,7 @@
     <t>配音文件名</t>
   </si>
   <si>
-    <t>背景文件名x</t>
+    <t>这个是指植物生长状态，从小到大排</t>
   </si>
   <si>
     <t>背景音乐文件名</t>
@@ -67,16 +67,16 @@
     <t>要动的物体名</t>
   </si>
   <si>
-    <t>当前状态</t>
-  </si>
-  <si>
-    <t>玩家参数</t>
-  </si>
-  <si>
-    <t>图片索引</t>
-  </si>
-  <si>
-    <t>是否可点击</t>
+    <t>当前状态，代表点击物体后进入对话后的行数</t>
+  </si>
+  <si>
+    <t>玩家参数//没想好，一般来指示特定参数，可以不填，</t>
+  </si>
+  <si>
+    <t>图片索引//选择当前物品的样子</t>
+  </si>
+  <si>
+    <t>是否可点击//它可不可以被点击Y（可以）</t>
   </si>
   <si>
     <t>选项模式</t>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>对话结束记号</t>
+  </si>
+  <si>
+    <t>XXX物体移动模式</t>
+  </si>
+  <si>
+    <t>PPP退出对话模式</t>
+  </si>
+  <si>
+    <t>AAA开启选项模式</t>
   </si>
 </sst>
 </file>
@@ -1029,18 +1038,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="20.7567567567568" customWidth="1"/>
-    <col min="3" max="3" width="16.0540540540541" customWidth="1"/>
-    <col min="4" max="4" width="25.3153153153153" customWidth="1"/>
-    <col min="5" max="5" width="19.6846846846847" customWidth="1"/>
+    <col min="2" max="2" width="43.1621621621622" customWidth="1"/>
+    <col min="3" max="3" width="40.7747747747748" customWidth="1"/>
+    <col min="4" max="4" width="34.1261261261261" customWidth="1"/>
+    <col min="5" max="5" width="32.2702702702703" customWidth="1"/>
     <col min="6" max="6" width="19.6036036036036" customWidth="1"/>
     <col min="7" max="7" width="13.8198198198198" customWidth="1"/>
     <col min="11" max="11" width="12.8108108108108" customWidth="1"/>
@@ -1131,6 +1141,19 @@
     <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
